--- a/PccuClub/Template/校內樓館_template.xlsx
+++ b/PccuClub/Template/校內樓館_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p10316871\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PushuData\2023\Project\Pccu\SRC3\PccuClub\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,16 +381,16 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="130" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
